--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Alcam-L1cam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Alcam-L1cam.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1148053333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="H2">
-        <v>0.344416</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="I2">
-        <v>0.001467477634511064</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="J2">
-        <v>0.001475896741204689</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="N2">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="O2">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="P2">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="Q2">
-        <v>0.9721051286471112</v>
+        <v>9.899624690666997</v>
       </c>
       <c r="R2">
-        <v>8.748946157824001</v>
+        <v>89.09662221600298</v>
       </c>
       <c r="S2">
-        <v>0.0004009837635647273</v>
+        <v>0.007556325938834693</v>
       </c>
       <c r="T2">
-        <v>0.0004616609434258129</v>
+        <v>0.007913092477997359</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1148053333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="H3">
-        <v>0.344416</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="I3">
-        <v>0.001467477634511064</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="J3">
-        <v>0.001475896741204689</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.003042</v>
       </c>
       <c r="O3">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="P3">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="Q3">
-        <v>0.03838485705244444</v>
+        <v>0.4930416172793333</v>
       </c>
       <c r="R3">
-        <v>0.345463713472</v>
+        <v>4.437374555513999</v>
       </c>
       <c r="S3">
-        <v>1.583337438637324E-05</v>
+        <v>0.0003763357983747784</v>
       </c>
       <c r="T3">
-        <v>1.822929310614653E-05</v>
+        <v>0.0003941042246491345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1148053333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="H4">
-        <v>0.344416</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="I4">
-        <v>0.001467477634511064</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="J4">
-        <v>0.001475896741204689</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="N4">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="O4">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="P4">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="Q4">
-        <v>0.475297792039111</v>
+        <v>9.823727479068666</v>
       </c>
       <c r="R4">
-        <v>4.277680128352</v>
+        <v>88.41354731161799</v>
       </c>
       <c r="S4">
-        <v>0.0001960556444456674</v>
+        <v>0.007498394038726764</v>
       </c>
       <c r="T4">
-        <v>0.0002257229394380008</v>
+        <v>0.007852425364549519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1148053333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="H5">
-        <v>0.344416</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="I5">
-        <v>0.001467477634511064</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="J5">
-        <v>0.001475896741204689</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="N5">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="O5">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="P5">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="Q5">
-        <v>1.349570216490666</v>
+        <v>3.845737591601999</v>
       </c>
       <c r="R5">
-        <v>8.097421298943999</v>
+        <v>23.07442554961199</v>
       </c>
       <c r="S5">
-        <v>0.0005566843838756651</v>
+        <v>0.002935429132456932</v>
       </c>
       <c r="T5">
-        <v>0.0004272815363989533</v>
+        <v>0.002049348883373819</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1148053333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="H6">
-        <v>0.344416</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="I6">
-        <v>0.001467477634511064</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="J6">
-        <v>0.001475896741204689</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="N6">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="O6">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="P6">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="Q6">
-        <v>0.7222487327893333</v>
+        <v>7.853197859241332</v>
       </c>
       <c r="R6">
-        <v>6.500238595103999</v>
+        <v>70.67878073317199</v>
       </c>
       <c r="S6">
-        <v>0.0002979204682386309</v>
+        <v>0.005994300242768919</v>
       </c>
       <c r="T6">
-        <v>0.0003430020288357753</v>
+        <v>0.006277316852907945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.291067</v>
       </c>
       <c r="I7">
-        <v>0.01402248216162264</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="J7">
-        <v>0.01410293093348245</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="N7">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="O7">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="P7">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="Q7">
-        <v>9.288950308409779</v>
+        <v>7.364588470316999</v>
       </c>
       <c r="R7">
-        <v>83.600552775688</v>
+        <v>66.28129623285299</v>
       </c>
       <c r="S7">
-        <v>0.003831600250289406</v>
+        <v>0.005621347538514596</v>
       </c>
       <c r="T7">
-        <v>0.00441140102694869</v>
+        <v>0.005886755452754954</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.291067</v>
       </c>
       <c r="I8">
-        <v>0.01402248216162264</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="J8">
-        <v>0.01410293093348245</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.003042</v>
       </c>
       <c r="O8">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="P8">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="Q8">
         <v>0.3667864917571111</v>
@@ -948,10 +948,10 @@
         <v>3.301078425814</v>
       </c>
       <c r="S8">
-        <v>0.0001512958049034837</v>
+        <v>0.0002799659955080276</v>
       </c>
       <c r="T8">
-        <v>0.0001741900056181082</v>
+        <v>0.0002931843902820404</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.291067</v>
       </c>
       <c r="I9">
-        <v>0.01402248216162264</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="J9">
-        <v>0.01410293093348245</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="N9">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="O9">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="P9">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="Q9">
-        <v>4.541707930388777</v>
+        <v>7.308126559190889</v>
       </c>
       <c r="R9">
-        <v>40.875371373499</v>
+        <v>65.77313903271801</v>
       </c>
       <c r="S9">
-        <v>0.001873409660407383</v>
+        <v>0.005578250490199155</v>
       </c>
       <c r="T9">
-        <v>0.002156895490126484</v>
+        <v>0.005841623608045064</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.291067</v>
       </c>
       <c r="I10">
-        <v>0.01402248216162264</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="J10">
-        <v>0.01410293093348245</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="N10">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="O10">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="P10">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="Q10">
-        <v>12.89581785885466</v>
+        <v>2.860944289502</v>
       </c>
       <c r="R10">
-        <v>77.37490715312799</v>
+        <v>17.165665737012</v>
       </c>
       <c r="S10">
-        <v>0.005319397487888291</v>
+        <v>0.002183742133649351</v>
       </c>
       <c r="T10">
-        <v>0.004082888611887642</v>
+        <v>0.001524563973862626</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.291067</v>
       </c>
       <c r="I11">
-        <v>0.01402248216162264</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="J11">
-        <v>0.01410293093348245</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="N11">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="O11">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="P11">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="Q11">
-        <v>6.901447581630333</v>
+        <v>5.842198286952444</v>
       </c>
       <c r="R11">
-        <v>62.113028234673</v>
+        <v>52.579784582572</v>
       </c>
       <c r="S11">
-        <v>0.002846778958134078</v>
+        <v>0.004459315967516745</v>
       </c>
       <c r="T11">
-        <v>0.003277555798901528</v>
+        <v>0.004669859390026801</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.088399</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="H12">
-        <v>87.265197</v>
+        <v>110.836754</v>
       </c>
       <c r="I12">
-        <v>0.37181700289389</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="J12">
-        <v>0.3739501645477712</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="N12">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="O12">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="P12">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="Q12">
-        <v>246.303730245112</v>
+        <v>248.025057100254</v>
       </c>
       <c r="R12">
-        <v>2216.733572206008</v>
+        <v>2232.225513902286</v>
       </c>
       <c r="S12">
-        <v>0.1015978558524498</v>
+        <v>0.1893160832869243</v>
       </c>
       <c r="T12">
-        <v>0.11697172365761</v>
+        <v>0.198254507117345</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.088399</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="H13">
-        <v>87.265197</v>
+        <v>110.836754</v>
       </c>
       <c r="I13">
-        <v>0.37181700289389</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="J13">
-        <v>0.3739501645477712</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.003042</v>
       </c>
       <c r="O13">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="P13">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="Q13">
-        <v>9.725628636586</v>
+        <v>12.35265771174089</v>
       </c>
       <c r="R13">
-        <v>87.530657729274</v>
+        <v>111.173919405668</v>
       </c>
       <c r="S13">
-        <v>0.004011725747356729</v>
+        <v>0.00942871177417183</v>
       </c>
       <c r="T13">
-        <v>0.00461878325652298</v>
+        <v>0.00987388167494934</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.088399</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="H14">
-        <v>87.265197</v>
+        <v>110.836754</v>
       </c>
       <c r="I14">
-        <v>0.37181700289389</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="J14">
-        <v>0.3739501645477712</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="N14">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="O14">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="P14">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="Q14">
-        <v>120.426912384901</v>
+        <v>246.1235294334351</v>
       </c>
       <c r="R14">
-        <v>1083.842211464109</v>
+        <v>2215.111764900916</v>
       </c>
       <c r="S14">
-        <v>0.04967491183775761</v>
+        <v>0.1878646582803034</v>
       </c>
       <c r="T14">
-        <v>0.05719175873791058</v>
+        <v>0.1967345541143596</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.088399</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="H15">
-        <v>87.265197</v>
+        <v>110.836754</v>
       </c>
       <c r="I15">
-        <v>0.37181700289389</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="J15">
-        <v>0.3739501645477712</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="N15">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="O15">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="P15">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="Q15">
-        <v>341.9426240575079</v>
+        <v>96.351055272724</v>
       </c>
       <c r="R15">
-        <v>2051.655744345048</v>
+        <v>578.106331636344</v>
       </c>
       <c r="S15">
-        <v>0.1410479548735643</v>
+        <v>0.07354420000161903</v>
       </c>
       <c r="T15">
-        <v>0.1082609618842253</v>
+        <v>0.05134435796301755</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.088399</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="H16">
-        <v>87.265197</v>
+        <v>110.836754</v>
       </c>
       <c r="I16">
-        <v>0.37181700289389</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="J16">
-        <v>0.3739501645477712</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="N16">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="O16">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="P16">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="Q16">
-        <v>182.997241562127</v>
+        <v>196.7539081854516</v>
       </c>
       <c r="R16">
-        <v>1646.975174059143</v>
+        <v>1770.785173669064</v>
       </c>
       <c r="S16">
-        <v>0.07548455458276146</v>
+        <v>0.1501811135719587</v>
       </c>
       <c r="T16">
-        <v>0.0869069370115024</v>
+        <v>0.157271807722842</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.338819</v>
+        <v>0.930777</v>
       </c>
       <c r="H17">
-        <v>2.677638</v>
+        <v>1.861554</v>
       </c>
       <c r="I17">
-        <v>0.01711320268940875</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="J17">
-        <v>0.01147425554656532</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="N17">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="O17">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="P17">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="Q17">
-        <v>11.336344562072</v>
+        <v>6.248541487580999</v>
       </c>
       <c r="R17">
-        <v>68.018067372432</v>
+        <v>37.491248925486</v>
       </c>
       <c r="S17">
-        <v>0.004676130156717149</v>
+        <v>0.004769475368799238</v>
       </c>
       <c r="T17">
-        <v>0.003589150577304211</v>
+        <v>0.003329775164133029</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.338819</v>
+        <v>0.930777</v>
       </c>
       <c r="H18">
-        <v>2.677638</v>
+        <v>1.861554</v>
       </c>
       <c r="I18">
-        <v>0.01711320268940875</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="J18">
-        <v>0.01147425554656532</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.003042</v>
       </c>
       <c r="O18">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="P18">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="Q18">
-        <v>0.447630562466</v>
+        <v>0.311202807878</v>
       </c>
       <c r="R18">
-        <v>2.685783374796</v>
+        <v>1.867216847268</v>
       </c>
       <c r="S18">
-        <v>0.0001846431855307811</v>
+        <v>0.0002375392929414461</v>
       </c>
       <c r="T18">
-        <v>0.0001417223588165358</v>
+        <v>0.0001658363608115828</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.338819</v>
+        <v>0.930777</v>
       </c>
       <c r="H19">
-        <v>2.677638</v>
+        <v>1.861554</v>
       </c>
       <c r="I19">
-        <v>0.01711320268940875</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="J19">
-        <v>0.01147425554656532</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="N19">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="O19">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="P19">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="Q19">
-        <v>5.542753948481</v>
+        <v>6.200635946686</v>
       </c>
       <c r="R19">
-        <v>33.256523690886</v>
+        <v>37.203815680116</v>
       </c>
       <c r="S19">
-        <v>0.002286331255003577</v>
+        <v>0.004732909348107559</v>
       </c>
       <c r="T19">
-        <v>0.001754867137737183</v>
+        <v>0.003304246857949328</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.338819</v>
+        <v>0.930777</v>
       </c>
       <c r="H20">
-        <v>2.677638</v>
+        <v>1.861554</v>
       </c>
       <c r="I20">
-        <v>0.01711320268940875</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="J20">
-        <v>0.01147425554656532</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="N20">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="O20">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="P20">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="Q20">
-        <v>15.738208280148</v>
+        <v>2.427390092286</v>
       </c>
       <c r="R20">
-        <v>62.952833120592</v>
+        <v>9.709560369143999</v>
       </c>
       <c r="S20">
-        <v>0.00649185546086158</v>
+        <v>0.001852812736961972</v>
       </c>
       <c r="T20">
-        <v>0.003321870292205416</v>
+        <v>0.0008623519860883618</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.338819</v>
+        <v>0.930777</v>
       </c>
       <c r="H21">
-        <v>2.677638</v>
+        <v>1.861554</v>
       </c>
       <c r="I21">
-        <v>0.01711320268940875</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="J21">
-        <v>0.01147425554656532</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="N21">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="O21">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="P21">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="Q21">
-        <v>8.422608062786999</v>
+        <v>4.956857877644</v>
       </c>
       <c r="R21">
-        <v>50.53564837672199</v>
+        <v>29.741147265864</v>
       </c>
       <c r="S21">
-        <v>0.003474242631295663</v>
+        <v>0.003783540783245069</v>
       </c>
       <c r="T21">
-        <v>0.002666645180501973</v>
+        <v>0.002641451974980136</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>46.59406033333332</v>
+        <v>20.08528866666667</v>
       </c>
       <c r="H22">
-        <v>139.782181</v>
+        <v>60.255866</v>
       </c>
       <c r="I22">
-        <v>0.5955798346205675</v>
+        <v>0.3318055482784176</v>
       </c>
       <c r="J22">
-        <v>0.5989967522309763</v>
+        <v>0.3335149544450747</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="N22">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="O22">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="P22">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="Q22">
-        <v>394.5315404730871</v>
+        <v>134.837624397366</v>
       </c>
       <c r="R22">
-        <v>3550.783864257784</v>
+        <v>1213.538619576294</v>
       </c>
       <c r="S22">
-        <v>0.1627403634461404</v>
+        <v>0.1029207743325084</v>
       </c>
       <c r="T22">
-        <v>0.1873663638001072</v>
+        <v>0.1077801052777023</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>46.59406033333332</v>
+        <v>20.08528866666667</v>
       </c>
       <c r="H23">
-        <v>139.782181</v>
+        <v>60.255866</v>
       </c>
       <c r="I23">
-        <v>0.5955798346205675</v>
+        <v>0.3318055482784176</v>
       </c>
       <c r="J23">
-        <v>0.5989967522309763</v>
+        <v>0.3335149544450747</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.003042</v>
       </c>
       <c r="O23">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="P23">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="Q23">
-        <v>15.57859982162244</v>
+        <v>6.715462704930222</v>
       </c>
       <c r="R23">
-        <v>140.207398394602</v>
+        <v>60.439164344372</v>
       </c>
       <c r="S23">
-        <v>0.006426018548257886</v>
+        <v>0.005125873617853515</v>
       </c>
       <c r="T23">
-        <v>0.00739840875123521</v>
+        <v>0.005367888084358758</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>46.59406033333332</v>
+        <v>20.08528866666667</v>
       </c>
       <c r="H24">
-        <v>139.782181</v>
+        <v>60.255866</v>
       </c>
       <c r="I24">
-        <v>0.5955798346205675</v>
+        <v>0.3318055482784176</v>
       </c>
       <c r="J24">
-        <v>0.5989967522309763</v>
+        <v>0.3335149544450747</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="N24">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="O24">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="P24">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="Q24">
-        <v>192.9009163212841</v>
+        <v>133.8038680651738</v>
       </c>
       <c r="R24">
-        <v>1736.108246891557</v>
+        <v>1204.234812586564</v>
       </c>
       <c r="S24">
-        <v>0.07956972259702198</v>
+        <v>0.1021317141376565</v>
       </c>
       <c r="T24">
-        <v>0.09161027587677303</v>
+        <v>0.1069537901685988</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>46.59406033333332</v>
+        <v>20.08528866666667</v>
       </c>
       <c r="H25">
-        <v>139.782181</v>
+        <v>60.255866</v>
       </c>
       <c r="I25">
-        <v>0.5955798346205675</v>
+        <v>0.3318055482784176</v>
       </c>
       <c r="J25">
-        <v>0.5989967522309763</v>
+        <v>0.3335149544450747</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="N25">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="O25">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="P25">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="Q25">
-        <v>547.7267846839505</v>
+        <v>52.380785848996</v>
       </c>
       <c r="R25">
-        <v>3286.360708103703</v>
+        <v>314.2847150939759</v>
       </c>
       <c r="S25">
-        <v>0.2259318884917706</v>
+        <v>0.03998194913191662</v>
       </c>
       <c r="T25">
-        <v>0.1734133868893331</v>
+        <v>0.02791311222697498</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.59406033333332</v>
+        <v>20.08528866666667</v>
       </c>
       <c r="H26">
-        <v>139.782181</v>
+        <v>60.255866</v>
       </c>
       <c r="I26">
-        <v>0.5955798346205675</v>
+        <v>0.3318055482784176</v>
       </c>
       <c r="J26">
-        <v>0.5989967522309763</v>
+        <v>0.3335149544450747</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="N26">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="O26">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="P26">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="Q26">
-        <v>293.1266349234043</v>
+        <v>106.9643119158729</v>
       </c>
       <c r="R26">
-        <v>2638.139714310638</v>
+        <v>962.678807242856</v>
       </c>
       <c r="S26">
-        <v>0.1209118415373765</v>
+        <v>0.08164523705848266</v>
       </c>
       <c r="T26">
-        <v>0.1392083169135277</v>
+        <v>0.08550005868743986</v>
       </c>
     </row>
   </sheetData>
